--- a/intermediateTables/StructuredEnvData.xlsx
+++ b/intermediateTables/StructuredEnvData.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -511,7 +511,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -559,7 +559,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -567,7 +567,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -635,7 +635,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -811,7 +811,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -827,7 +827,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -899,7 +899,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -963,7 +963,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[水下结构体]开放水域.1</t>
+          <t>[水下结构体]开放水域</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[水下结构体]水草.1</t>
+          <t>[水下结构体]水草</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[水下结构体]石头.1</t>
+          <t>[水下结构体]石头</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[水下结构体]沉木.1</t>
+          <t>[水下结构体]沉木</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[水下结构体]桥墩.1</t>
+          <t>[水下结构体]桥墩</t>
         </is>
       </c>
       <c r="K23" t="n">
